--- a/InputFile/Create_Notification.xlsx
+++ b/InputFile/Create_Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asset_Management_Smoke_Test\Smoke_Test_Scenarios\InputFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05590292-CDFE-4DDC-92E9-C10F5158574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5770D6F1-B8B7-4002-B0CE-487E2C2C0C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{5B5096FC-3196-4F89-9EC8-FB58AA9D969C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5B5096FC-3196-4F89-9EC8-FB58AA9D969C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNO_All Field" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>Field Type</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t xml:space="preserve">Break Down Repair for the Plant VL01 </t>
-  </si>
-  <si>
     <t>Tab</t>
   </si>
   <si>
@@ -183,7 +180,115 @@
     <t>Items</t>
   </si>
   <si>
-    <t>10046604</t>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Reference No</t>
+  </si>
+  <si>
+    <t>LongTextBox</t>
+  </si>
+  <si>
+    <t>TextBoxDisplay</t>
+  </si>
+  <si>
+    <t>REfinery work centre maintenance team</t>
+  </si>
+  <si>
+    <t>Yousef Alhasan</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t>GUNTUR PLANNER GRP</t>
+  </si>
+  <si>
+    <t>Abitha Amirthalingam</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Maintenance Plant</t>
+  </si>
+  <si>
+    <t>VL01 MOB OIL REFINERY PLANT</t>
+  </si>
+  <si>
+    <t>GUNTUR SEA SHORE</t>
+  </si>
+  <si>
+    <t>10017391 machine</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Plant Section</t>
+  </si>
+  <si>
+    <t>Prabhaa</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Findley Twp, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Latitude / Longitude</t>
+  </si>
+  <si>
+    <t>41.225 / -80.194</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Number</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Gas Pipe</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Pressure too Low</t>
+  </si>
+  <si>
+    <t>Vednro Manufacturing Defect</t>
+  </si>
+  <si>
+    <t>AttachDisplay</t>
+  </si>
+  <si>
+    <t>EXPORT.XLS</t>
+  </si>
+  <si>
+    <t>DropdownDisplay</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Break Down - D-MOB-PAPB-CDU-001 Crude Oil Distillation Unit</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>10046625</t>
   </si>
 </sst>
 </file>
@@ -574,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C1E7EE-DFD4-441E-93D8-1229C81BBE6E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +729,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -633,21 +738,21 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,15 +774,15 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,26 +823,26 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,10 +850,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,10 +861,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,49 +872,49 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -823,12 +928,294 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4094A1EE-E78A-471D-980D-6352D5DA882F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InputFile/Create_Notification.xlsx
+++ b/InputFile/Create_Notification.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asset_Management_Smoke_Test\Smoke_Test_Scenarios\InputFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5770D6F1-B8B7-4002-B0CE-487E2C2C0C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{423B8319-013F-4AD2-9021-57A5E8150896}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5B5096FC-3196-4F89-9EC8-FB58AA9D969C}"/>
+    <workbookView activeTab="1" windowHeight="10770" windowWidth="20460" xWindow="30" xr2:uid="{5B5096FC-3196-4F89-9EC8-FB58AA9D969C}" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="CNO_All Field" sheetId="1" r:id="rId1"/>
-    <sheet name="CNO_Exist" sheetId="2" r:id="rId2"/>
+    <sheet name="CNO_All_Field" r:id="rId1" sheetId="1"/>
+    <sheet name="CNO_Exist" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="110">
   <si>
     <t>Field Type</t>
   </si>
@@ -48,253 +48,332 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Planning Plant</t>
+  </si>
+  <si>
+    <t>Notification Type</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Functional Location</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BreakDown Repair</t>
+  </si>
+  <si>
+    <t>VL01</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Planner Group</t>
+  </si>
+  <si>
+    <t>Person Responsible</t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>GU1</t>
+  </si>
+  <si>
+    <t>REF_MAIN</t>
+  </si>
+  <si>
+    <t>Main Work Center</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>ABITHAA</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Object Part</t>
+  </si>
+  <si>
+    <t>Damage Part</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Notification Number</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>With Description</t>
+  </si>
+  <si>
+    <t>\\InputFile\\Export.xlsx</t>
+  </si>
+  <si>
+    <t>Attach</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Reference No</t>
+  </si>
+  <si>
+    <t>LongTextBox</t>
+  </si>
+  <si>
+    <t>TextBoxDisplay</t>
+  </si>
+  <si>
+    <t>REfinery work centre maintenance team</t>
+  </si>
+  <si>
+    <t>Yousef Alhasan</t>
+  </si>
+  <si>
+    <t>Work Order Number</t>
+  </si>
+  <si>
+    <t>GUNTUR PLANNER GRP</t>
+  </si>
+  <si>
+    <t>Abitha Amirthalingam</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Maintenance Plant</t>
+  </si>
+  <si>
+    <t>VL01 MOB OIL REFINERY PLANT</t>
+  </si>
+  <si>
+    <t>GUNTUR SEA SHORE</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Plant Section</t>
+  </si>
+  <si>
+    <t>Prabhaa</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Latitude / Longitude</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item Number</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Gas Pipe</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Pressure too Low</t>
+  </si>
+  <si>
+    <t>Vednro Manufacturing Defect</t>
+  </si>
+  <si>
+    <t>AttachDisplay</t>
+  </si>
+  <si>
+    <t>EXPORT.XLS</t>
+  </si>
+  <si>
+    <t>DropdownDisplay</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Break Down - D-MOB-PAPB-CDU-001 Crude Oil Distillation Unit</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>TextAreaBox</t>
+  </si>
+  <si>
+    <t>D-MOB-PAPB-DHU-001</t>
+  </si>
+  <si>
+    <t>D-MOB-PAPB-DHU-001 iee</t>
+  </si>
+  <si>
+    <t>10017208</t>
+  </si>
+  <si>
+    <t>10017208 Feed Exchanger</t>
+  </si>
+  <si>
+    <t>Monroe Twp, Pennsylvania</t>
+  </si>
+  <si>
+    <t>41.628 / -76.473</t>
+  </si>
+  <si>
+    <t>NEL123</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>10046662</t>
+  </si>
+  <si>
     <t>Dropdown</t>
   </si>
   <si>
-    <t>Planning Plant</t>
-  </si>
-  <si>
-    <t>Notification Type</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>Functional Location</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>TextBox</t>
-  </si>
-  <si>
-    <t>BreakDown Repair</t>
-  </si>
-  <si>
-    <t>VL01</t>
-  </si>
-  <si>
-    <t>D-MOB-PAPB-CDU-001</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Tab</t>
-  </si>
-  <si>
-    <t>Planner Group</t>
-  </si>
-  <si>
-    <t>Person Responsible</t>
-  </si>
-  <si>
-    <t>Responsibilities</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>GU1</t>
-  </si>
-  <si>
-    <t>10017391</t>
-  </si>
-  <si>
-    <t>REF_MAIN</t>
-  </si>
-  <si>
-    <t>Main Work Center</t>
-  </si>
-  <si>
-    <t>Reported By</t>
-  </si>
-  <si>
-    <t>ABITHAA</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Object Part</t>
-  </si>
-  <si>
-    <t>Damage Part</t>
-  </si>
-  <si>
-    <t>Cause</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Attachments</t>
-  </si>
-  <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Notification Number</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>EQ</t>
-  </si>
-  <si>
-    <t>With Description</t>
-  </si>
-  <si>
-    <t>D-MOB-PAPB-CDU-001 Crude Oil Distillation Unit</t>
-  </si>
-  <si>
-    <t>\\InputFile\\Export.xlsx</t>
-  </si>
-  <si>
-    <t>Attach</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Reference No</t>
-  </si>
-  <si>
-    <t>LongTextBox</t>
-  </si>
-  <si>
-    <t>TextBoxDisplay</t>
-  </si>
-  <si>
-    <t>REfinery work centre maintenance team</t>
-  </si>
-  <si>
-    <t>Yousef Alhasan</t>
-  </si>
-  <si>
-    <t>Work Order Number</t>
-  </si>
-  <si>
-    <t>GUNTUR PLANNER GRP</t>
-  </si>
-  <si>
-    <t>Abitha Amirthalingam</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Maintenance Plant</t>
-  </si>
-  <si>
-    <t>VL01 MOB OIL REFINERY PLANT</t>
-  </si>
-  <si>
-    <t>GUNTUR SEA SHORE</t>
-  </si>
-  <si>
-    <t>10017391 machine</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Plant Section</t>
-  </si>
-  <si>
-    <t>Prabhaa</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Findley Twp, Pennsylvania</t>
-  </si>
-  <si>
-    <t>Latitude / Longitude</t>
-  </si>
-  <si>
-    <t>41.225 / -80.194</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Item Number</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>Gas Pipe</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Pressure too Low</t>
-  </si>
-  <si>
-    <t>Vednro Manufacturing Defect</t>
-  </si>
-  <si>
-    <t>AttachDisplay</t>
-  </si>
-  <si>
-    <t>EXPORT.XLS</t>
-  </si>
-  <si>
-    <t>DropdownDisplay</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>FileName</t>
-  </si>
-  <si>
-    <t>Break Down - D-MOB-PAPB-CDU-001 Crude Oil Distillation Unit</t>
-  </si>
-  <si>
-    <t>Test Result</t>
-  </si>
-  <si>
-    <t>10046625</t>
+    <t>10046667</t>
+  </si>
+  <si>
+    <t>10046668</t>
+  </si>
+  <si>
+    <t>10046669</t>
+  </si>
+  <si>
+    <t>10046673</t>
+  </si>
+  <si>
+    <t>10046674</t>
+  </si>
+  <si>
+    <t>10046677</t>
+  </si>
+  <si>
+    <t>10046678</t>
+  </si>
+  <si>
+    <t>10046685</t>
+  </si>
+  <si>
+    <t>10046686</t>
+  </si>
+  <si>
+    <t>10046687</t>
+  </si>
+  <si>
+    <t>10046688</t>
+  </si>
+  <si>
+    <t>10046689</t>
+  </si>
+  <si>
+    <t>10046690</t>
+  </si>
+  <si>
+    <t>10046691</t>
+  </si>
+  <si>
+    <t>10046692</t>
+  </si>
+  <si>
+    <t>10046693</t>
+  </si>
+  <si>
+    <t>10046694</t>
+  </si>
+  <si>
+    <t>10046695</t>
+  </si>
+  <si>
+    <t>10046696</t>
+  </si>
+  <si>
+    <t>10046697</t>
+  </si>
+  <si>
+    <t>10046698</t>
+  </si>
+  <si>
+    <t>10046699</t>
+  </si>
+  <si>
+    <t>10046701</t>
+  </si>
+  <si>
+    <t>10046703</t>
+  </si>
+  <si>
+    <t>10046704</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,25 +429,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -385,10 +464,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -423,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -475,7 +554,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -586,21 +665,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -617,7 +696,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -669,26 +748,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme 2013 - 2022" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C1E7EE-DFD4-441E-93D8-1229C81BBE6E}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C1E7EE-DFD4-441E-93D8-1229C81BBE6E}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,245 +781,245 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{99E6760E-CD49-4481-AC9F-66C55550CF4B}"/>
+    <hyperlink r:id="rId1" ref="C19" xr:uid="{99E6760E-CD49-4481-AC9F-66C55550CF4B}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4094A1EE-E78A-471D-980D-6352D5DA882F}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4094A1EE-E78A-471D-980D-6352D5DA882F}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="57.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,268 +1033,329 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
+      <c r="E9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>